--- a/results/synechocystis_sp_pcc_6803/Iron_limitation_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Iron_limitation_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.036269430051814</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.55440414507772</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.772020725388601</v>
+        <v>7.719298245614035</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.081174438687391</v>
+        <v>7.192982456140351</v>
       </c>
       <c r="C5" t="n">
-        <v>9.333333333333334</v>
+        <v>9.722222222222221</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1727115716753022</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.10880829015544</v>
+        <v>2.807017543859649</v>
       </c>
       <c r="C7" t="n">
-        <v>3.333333333333333</v>
+        <v>3.472222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.727115716753023</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.036269430051814</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="C9" t="n">
-        <v>1.333333333333333</v>
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.06217616580311</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.690846286701209</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.690846286701209</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.036269430051814</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="14">
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.454231433506045</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="C14" t="n">
-        <v>2.666666666666667</v>
+        <v>2.777777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.727115716753022</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>2.307692307692308</v>
       </c>
     </row>
     <row r="3">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.690846286701209</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="4">
@@ -691,59 +691,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.454231433506045</v>
+        <v>2.786885245901639</v>
       </c>
       <c r="C4" t="n">
-        <v>9.333333333333334</v>
+        <v>10.76923076923077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8635578583765112</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666667</v>
+        <v>2.307692307692308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.208981001727116</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C7" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.208981001727116</v>
+        <v>0.9836065573770493</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -752,11 +752,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.208981001727116</v>
+        <v>2.131147540983606</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3454231433506045</v>
+        <v>0.9836065573770493</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.10880829015544</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -791,154 +791,154 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.072538860103627</v>
+        <v>3.114754098360656</v>
       </c>
       <c r="C12" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3454231433506045</v>
+        <v>16.72131147540984</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3454231433506045</v>
+        <v>2.131147540983606</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.208981001727116</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.153846153846154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1727115716753022</v>
+        <v>4.426229508196721</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.690846286701209</v>
+        <v>1.147540983606557</v>
       </c>
       <c r="C17" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.972366148531951</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C18" t="n">
-        <v>5.333333333333334</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.10880829015544</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="C19" t="n">
-        <v>3.333333333333333</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.072538860103627</v>
+        <v>3.606557377049181</v>
       </c>
       <c r="C20" t="n">
-        <v>1.333333333333333</v>
+        <v>4.615384615384616</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5181347150259068</v>
+        <v>2.131147540983606</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1727115716753022</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C22" t="n">
-        <v>3.333333333333333</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8635578583765112</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -947,271 +947,271 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.381692573402418</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.333333333333333</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.208981001727116</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C25" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.245250431778929</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C26" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5181347150259068</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6666666666666667</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.70811744386874</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="C29" t="n">
-        <v>6.666666666666667</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.80327868852459</v>
       </c>
       <c r="C30" t="n">
-        <v>2.666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.55440414507772</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.727115716753022</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6666666666666667</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.55440414507772</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.145077720207254</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.333333333333333</v>
+        <v>2.307692307692308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.50777202072539</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.599309153713299</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="C36" t="n">
-        <v>6.666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.526770293609672</v>
+        <v>1.311475409836065</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.454231433506045</v>
+        <v>3.114754098360656</v>
       </c>
       <c r="C38" t="n">
-        <v>3.333333333333333</v>
+        <v>6.153846153846154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.972366148531951</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.208981001727116</v>
+        <v>6.721311475409836</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6666666666666667</v>
+        <v>5.384615384615385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.208981001727116</v>
+        <v>4.426229508196721</v>
       </c>
       <c r="C41" t="n">
-        <v>3.333333333333333</v>
+        <v>6.153846153846154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.934426229508197</v>
       </c>
       <c r="C42" t="n">
-        <v>1.333333333333333</v>
+        <v>2.307692307692308</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8635578583765112</v>
+        <v>2.295081967213115</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3454231433506045</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1220,105 +1220,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.417962003454232</v>
+        <v>0.9836065573770493</v>
       </c>
       <c r="C45" t="n">
-        <v>3.333333333333333</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.208981001727116</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.307692307692308</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.9836065573770493</v>
       </c>
       <c r="C47" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.0259067357513</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="C48" t="n">
-        <v>11.33333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.899827288428325</v>
+        <v>2.295081967213115</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.208981001727116</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.727115716753022</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.333333333333333</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.885245901639345</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.692307692307693</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.295081967213115</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.147540983606557</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.967213114754099</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.076923076923077</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.333333333333333</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.846153846153846</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1419,7 @@
         <v>1.038062283737024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.6493506493506493</v>
       </c>
     </row>
     <row r="3">
@@ -1393,7 +1445,7 @@
         <v>7.958477508650519</v>
       </c>
       <c r="C4" t="n">
-        <v>9.554140127388536</v>
+        <v>9.740259740259742</v>
       </c>
     </row>
     <row r="5">
@@ -1406,7 +1458,7 @@
         <v>7.093425605536332</v>
       </c>
       <c r="C5" t="n">
-        <v>7.006369426751593</v>
+        <v>7.142857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -1432,7 +1484,7 @@
         <v>2.768166089965398</v>
       </c>
       <c r="C7" t="n">
-        <v>3.821656050955414</v>
+        <v>3.896103896103896</v>
       </c>
     </row>
     <row r="8">
@@ -1458,7 +1510,7 @@
         <v>1.038062283737024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.6493506493506493</v>
       </c>
     </row>
     <row r="10">
@@ -1471,7 +1523,7 @@
         <v>15.57093425605536</v>
       </c>
       <c r="C10" t="n">
-        <v>7.006369426751593</v>
+        <v>6.493506493506493</v>
       </c>
     </row>
     <row r="11">
@@ -1510,7 +1562,7 @@
         <v>1.038062283737024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.6493506493506493</v>
       </c>
     </row>
     <row r="14">
@@ -1523,7 +1575,7 @@
         <v>3.28719723183391</v>
       </c>
       <c r="C14" t="n">
-        <v>1.910828025477707</v>
+        <v>1.948051948051948</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.730103806228374</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C2" t="n">
-        <v>1.910828025477707</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="3">
@@ -1582,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6920415224913495</v>
+        <v>0.8319467554076538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="4">
@@ -1595,59 +1647,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.460207612456748</v>
+        <v>2.662229617304492</v>
       </c>
       <c r="C4" t="n">
-        <v>8.280254777070063</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C5" t="n">
-        <v>1.910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8650519031141869</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6369426751592357</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.211072664359861</v>
+        <v>0.4991680532445923</v>
       </c>
       <c r="C7" t="n">
-        <v>1.273885350318471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.211072664359861</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1656,11 +1708,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.211072664359861</v>
+        <v>1.830282861896839</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1669,11 +1721,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3460207612456748</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1682,11 +1734,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.114186851211072</v>
+        <v>0.3327787021630615</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1695,180 +1747,180 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.076124567474048</v>
+        <v>3.161397670549085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6369426751592357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3460207612456748</v>
+        <v>16.97171381031614</v>
       </c>
       <c r="C13" t="n">
-        <v>7.643312101910828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3460207612456748</v>
+        <v>1.996672212978369</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.211072664359861</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.910828025477707</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.492512479201332</v>
       </c>
       <c r="C16" t="n">
-        <v>1.910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6920415224913495</v>
+        <v>1.164725457570716</v>
       </c>
       <c r="C17" t="n">
-        <v>1.910828025477707</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.97923875432526</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5.732484076433122</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.114186851211072</v>
+        <v>0.6655574043261231</v>
       </c>
       <c r="C19" t="n">
-        <v>2.547770700636943</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.076124567474048</v>
+        <v>3.327787021630615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.273885350318471</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5190311418685121</v>
+        <v>2.495840266222962</v>
       </c>
       <c r="C21" t="n">
-        <v>3.184713375796179</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1730103806228374</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C22" t="n">
-        <v>3.184713375796179</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8650519031141869</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.384083044982699</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.273885350318471</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.211072664359861</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1877,245 +1929,245 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.903114186851211</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6369426751592357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8319467554076538</v>
       </c>
       <c r="C27" t="n">
-        <v>3.184713375796179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5190311418685121</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6369426751592357</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.5916955017301</v>
+        <v>0.8319467554076538</v>
       </c>
       <c r="C29" t="n">
-        <v>11.46496815286624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C30" t="n">
-        <v>1.910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.557093425605536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.211072664359861</v>
+        <v>0.6655574043261231</v>
       </c>
       <c r="C32" t="n">
-        <v>1.910828025477707</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.557093425605536</v>
+        <v>1.331114808652246</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.152249134948097</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.006369426751593</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.39792387543253</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C35" t="n">
-        <v>7.006369426751593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.612456747404845</v>
+        <v>1.164725457570716</v>
       </c>
       <c r="C36" t="n">
-        <v>6.369426751592357</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.536332179930796</v>
+        <v>1.331114808652246</v>
       </c>
       <c r="C37" t="n">
-        <v>7.006369426751593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.460207612456748</v>
+        <v>3.161397670549085</v>
       </c>
       <c r="C38" t="n">
-        <v>3.184713375796179</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.806228373702422</v>
+        <v>1.996672212978369</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.211072664359861</v>
+        <v>6.821963394342761</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6369426751592357</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.211072664359861</v>
+        <v>4.326123128119801</v>
       </c>
       <c r="C41" t="n">
-        <v>3.184713375796179</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.327787021630615</v>
       </c>
       <c r="C42" t="n">
-        <v>1.273885350318471</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8650519031141869</v>
+        <v>2.1630615640599</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3460207612456748</v>
+        <v>1.663893510815308</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2124,76 +2176,76 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.422145328719723</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C45" t="n">
-        <v>3.184713375796179</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.211072664359861</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C47" t="n">
-        <v>1.910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.05190311418685</v>
+        <v>1.663893510815308</v>
       </c>
       <c r="C48" t="n">
-        <v>15.28662420382166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.903114186851211</v>
+        <v>2.329450915141431</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.211072664359861</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2202,27 +2254,79 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.730103806228374</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.184713375796179</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.988352745424292</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.870967741935484</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.329450915141431</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.164725457570716</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.996672212978369</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.273885350318471</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.032258064516129</v>
       </c>
     </row>
   </sheetData>
